--- a/sheets/Assets Repo.xlsx
+++ b/sheets/Assets Repo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\sb\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C92595-6448-4D6B-B0A2-797F684FAEE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CBC658-BF17-4820-A32B-433A1B63ABF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="3040" windowWidth="19200" windowHeight="10073" tabRatio="835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6020" yWindow="3380" windowWidth="19200" windowHeight="10073" tabRatio="835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>

--- a/sheets/Assets Repo.xlsx
+++ b/sheets/Assets Repo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\sb\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CBC658-BF17-4820-A32B-433A1B63ABF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6E963A-6461-4B73-9168-6DBED70777D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="3380" windowWidth="19200" windowHeight="10073" tabRatio="835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3640" yWindow="3640" windowWidth="19200" windowHeight="10073" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -3619,7 +3619,7 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -25479,8 +25479,8 @@
   </sheetPr>
   <dimension ref="A2:BY27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.41015625" defaultRowHeight="15.75" customHeight="1"/>

--- a/sheets/Assets Repo.xlsx
+++ b/sheets/Assets Repo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\sb\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6E963A-6461-4B73-9168-6DBED70777D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE30496-5EE1-4E40-833C-B02CE9C0FCCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="3640" windowWidth="19200" windowHeight="10073" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4473" yWindow="1893" windowWidth="19200" windowHeight="10074" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>

--- a/sheets/Assets Repo.xlsx
+++ b/sheets/Assets Repo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\sb\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE30496-5EE1-4E40-833C-B02CE9C0FCCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCD23EB-749E-4DFD-94C5-14146C21B2DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4473" yWindow="1893" windowWidth="19200" windowHeight="10074" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="1887" windowWidth="19200" windowHeight="10466" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>

--- a/sheets/Assets Repo.xlsx
+++ b/sheets/Assets Repo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\sb\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCD23EB-749E-4DFD-94C5-14146C21B2DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478EE2DF-2B3F-4533-9D50-B03A3BB4520D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1887" windowWidth="19200" windowHeight="10466" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1600" yWindow="2227" windowWidth="19200" windowHeight="10466" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>

--- a/sheets/Assets Repo.xlsx
+++ b/sheets/Assets Repo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\sb\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478EE2DF-2B3F-4533-9D50-B03A3BB4520D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597D6C83-4B17-440F-823A-3E033336A047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="2227" windowWidth="19200" windowHeight="10466" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1673" yWindow="7967" windowWidth="19200" windowHeight="10466" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -25480,7 +25480,7 @@
   <dimension ref="A2:BY27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.41015625" defaultRowHeight="15.75" customHeight="1"/>

--- a/sheets/Assets Repo.xlsx
+++ b/sheets/Assets Repo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\sb\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597D6C83-4B17-440F-823A-3E033336A047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7F60BB-F036-43DC-A483-8F73F1A8A43D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1673" yWindow="7967" windowWidth="19200" windowHeight="10466" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2907" yWindow="633" windowWidth="19200" windowHeight="10467" tabRatio="835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -25479,7 +25479,7 @@
   </sheetPr>
   <dimension ref="A2:BY27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -26115,7 +26115,9 @@
   </sheetPr>
   <dimension ref="B4:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.41015625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -26173,7 +26175,7 @@
   </sheetPr>
   <dimension ref="C2:G121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>

--- a/sheets/Assets Repo.xlsx
+++ b/sheets/Assets Repo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\sb\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7F60BB-F036-43DC-A483-8F73F1A8A43D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E5A882-5832-4002-B744-F214C1E1DA29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2907" yWindow="633" windowWidth="19200" windowHeight="10467" tabRatio="835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2293" yWindow="2173" windowWidth="19200" windowHeight="10467" tabRatio="835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
